--- a/TestingFramework/TestData/TC_11_ViewTemplate.xlsx
+++ b/TestingFramework/TestData/TC_11_ViewTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="945" windowWidth="14805" windowHeight="7170" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="7110" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="studiologin" sheetId="18" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="273">
   <si>
     <t>Yes</t>
   </si>
@@ -726,25 +726,10 @@
     <t>TC_02</t>
   </si>
   <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>TC_05</t>
-  </si>
-  <si>
-    <t>TC_06</t>
-  </si>
-  <si>
     <t xml:space="preserve">AutomationTestProjectTest </t>
   </si>
   <si>
     <t>AutomationTestProjectTest</t>
-  </si>
-  <si>
-    <t>pcModalEdit</t>
   </si>
   <si>
     <t>TC_21</t>
@@ -763,9 +748,6 @@
     <t>pChild</t>
   </si>
   <si>
-    <t>DrivingLicenseDetails</t>
-  </si>
-  <si>
     <t>employeeNo,drivingLicenseNo</t>
   </si>
   <si>
@@ -773,6 +755,98 @@
   </si>
   <si>
     <t>Save LeaveProcess</t>
+  </si>
+  <si>
+    <t>Triggers</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>EmployeeDetails.employeeId,not equals,300 and
+EmployeeDetails.employeeId,not equals,321</t>
+  </si>
+  <si>
+    <t>EmployeeDetails.employeeId,not equals,400 and
+EmployeeDetails.employeeId,not equals,421</t>
+  </si>
+  <si>
+    <t>EmployeeDetails.employeeId,not equals,500 and
+EmployeeDetails.employeeId,not equals,521</t>
+  </si>
+  <si>
+    <t>EmployeeDetails.employeeId,not equals,600 and
+EmployeeDetails.employeeId,not equals,621</t>
+  </si>
+  <si>
+    <t>EmployeeDetails.employeeId,not equals,700 and
+EmployeeDetails.employeeId,not equals,721</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>TC_23</t>
+  </si>
+  <si>
+    <t>TC_24</t>
+  </si>
+  <si>
+    <t>TC_25</t>
+  </si>
+  <si>
+    <t>TC_26</t>
+  </si>
+  <si>
+    <t>TC_27</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>TC_29</t>
+  </si>
+  <si>
+    <t>TC_30</t>
+  </si>
+  <si>
+    <t>TC_31</t>
+  </si>
+  <si>
+    <t>TC_32</t>
+  </si>
+  <si>
+    <t>TC_33</t>
+  </si>
+  <si>
+    <t>TC_34</t>
+  </si>
+  <si>
+    <t>TC_35</t>
+  </si>
+  <si>
+    <t>TC_36</t>
+  </si>
+  <si>
+    <t>TC_37</t>
+  </si>
+  <si>
+    <t>TC_38</t>
+  </si>
+  <si>
+    <t>TC_39</t>
+  </si>
+  <si>
+    <t>TC_40</t>
+  </si>
+  <si>
+    <t>TC_41</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1508,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1534,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I5" s="7">
         <v>899</v>
@@ -1703,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,7 +1797,7 @@
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>231</v>
       </c>
@@ -1737,12 +1811,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>16</v>
@@ -1751,9 +1825,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
@@ -1777,12 +1851,15 @@
         <v>50</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -1791,25 +1868,30 @@
         <v>228</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
@@ -1818,10 +1900,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>148</v>
@@ -1830,15 +1912,18 @@
         <v>217</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
@@ -1846,16 +1931,529 @@
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J7" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3147,7 +3745,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
